--- a/docs/수정.xlsx
+++ b/docs/수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>상품주문번호</t>
   </si>
@@ -136,9 +136,6 @@
     <t>김효은</t>
   </si>
   <si>
-    <t>010-9009-5334</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변동로 47 (풍산동, 미사강변브라운스톤엔에이치에프) 2401동 804호</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>박하린</t>
   </si>
   <si>
-    <t>010-5589-2335</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움) 104동 203호</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>유조일</t>
   </si>
   <si>
-    <t>010-8131-8131</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움아파트) 102동 1904호</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>임정희</t>
   </si>
   <si>
-    <t>010-8000-9745</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움) 112동 1401호</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>장영선</t>
   </si>
   <si>
-    <t>010-3389-5180</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움) 110동 2202호</t>
   </si>
   <si>
@@ -199,9 +184,6 @@
     <t>조소영</t>
   </si>
   <si>
-    <t>010-8933-4121</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움아파트) 118동 1103호</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>유혜경</t>
   </si>
   <si>
-    <t>010-8590-8121</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움아파트) 129동1301호</t>
   </si>
   <si>
@@ -229,9 +208,6 @@
     <t>오예성</t>
   </si>
   <si>
-    <t>010-2732-7891</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변동로 95 (망월동, 힐스테이트 미사역 그랑파사쥬(12-1BL)) 1204-2403</t>
   </si>
   <si>
@@ -241,9 +217,6 @@
     <t>김민선</t>
   </si>
   <si>
-    <t>010-9926-5825</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변동로 95 (망월동, 힐스테이트 미사역 그랑파사쥬(12-1BL)) 1205동 2303호</t>
   </si>
   <si>
@@ -256,9 +229,6 @@
     <t>차지은</t>
   </si>
   <si>
-    <t>010-8965-4688</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 아리수로 375 (고덕동) 풍경채 어바니티 102동 1306호</t>
   </si>
   <si>
@@ -268,9 +238,6 @@
     <t>송유진</t>
   </si>
   <si>
-    <t>010-9485-5853</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움) 143-703</t>
   </si>
   <si>
@@ -283,9 +250,6 @@
     <t>정지연</t>
   </si>
   <si>
-    <t>010-4262-3050</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움) 149동 1303호</t>
   </si>
   <si>
@@ -298,9 +262,6 @@
     <t>장효주</t>
   </si>
   <si>
-    <t>010-9636-0503</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 333 (고덕동, 고덕그라시움) 151동 1304호</t>
   </si>
   <si>
@@ -313,9 +274,6 @@
     <t>강지선</t>
   </si>
   <si>
-    <t>010-4535-0521</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 동남로79길 26 (고덕동, 고덕아이파크) 110동 201호</t>
   </si>
   <si>
@@ -328,9 +286,6 @@
     <t>강현</t>
   </si>
   <si>
-    <t>010-4181-8382</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 동남로79길 26 (고덕동, 고덕아이파크) 114동 506호</t>
   </si>
   <si>
@@ -340,9 +295,6 @@
     <t>최은아</t>
   </si>
   <si>
-    <t>010-3508-3807</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 아리수로50길 50 (고덕동, 고덕래미안힐스테이트 102동 902호</t>
   </si>
   <si>
@@ -355,9 +307,6 @@
     <t>김진경</t>
   </si>
   <si>
-    <t>010-9969-4973</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 아리수로50길 50 (고덕동, 래미안힐스테이트고덕) 113동 702호</t>
   </si>
   <si>
@@ -367,9 +316,6 @@
     <t>소희라</t>
   </si>
   <si>
-    <t>010-4942-2531</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 아리수로50길 50 (고덕동, 고덕래미안힐스테이트) 210동 501호</t>
   </si>
   <si>
@@ -385,9 +331,6 @@
     <t>김판수</t>
   </si>
   <si>
-    <t>010-3660-0785</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로62길 29 (명일동, 명일삼환아파트) 101동406호</t>
   </si>
   <si>
@@ -397,9 +340,6 @@
     <t>유혜란</t>
   </si>
   <si>
-    <t>010-6396-7409</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 동남로 858 (상일동, 고덕아르테스미소지움) 103동 402호</t>
   </si>
   <si>
@@ -415,9 +355,6 @@
     <t>[메인메뉴만] 봄날반찬 맛있는 건강반찬</t>
   </si>
   <si>
-    <t>010-5539-5870</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 구천면로 557 (상일동, 명일중앙하이츠아파트) 2동 902호</t>
   </si>
   <si>
@@ -427,9 +364,6 @@
     <t>전소영</t>
   </si>
   <si>
-    <t>010-3515-3008</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로80길 99 (상일동, 고덕센트럴 IPARK) 514동 601호</t>
   </si>
   <si>
@@ -448,9 +382,6 @@
     <t>김정은</t>
   </si>
   <si>
-    <t>010-4409-2585</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로80길 99 (상일동, 고덕센트럴 IPARK) 517동 1002호</t>
   </si>
   <si>
@@ -463,9 +394,6 @@
     <t>이기은</t>
   </si>
   <si>
-    <t>010-2073-3004</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 상암로79길 88 (상일동, 고덕 롯데캐슬 베네루체) 704-401</t>
   </si>
   <si>
@@ -481,9 +409,6 @@
     <t>박선희</t>
   </si>
   <si>
-    <t>010-9276-5145</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 상일로 55 (상일동, 고덕자이) 108동 1101호</t>
   </si>
   <si>
@@ -496,9 +421,6 @@
     <t>백창숙</t>
   </si>
   <si>
-    <t>010-2696-9352</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 상일로 55 (상일동, 고덕자이) 고덕자이아파트 113동 1903호</t>
   </si>
   <si>
@@ -508,9 +430,6 @@
     <t>차혜원</t>
   </si>
   <si>
-    <t>010-5232-4260</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로 360 (상일동, 고덕아르테온아파트) 323동 1704호</t>
   </si>
   <si>
@@ -520,9 +439,6 @@
     <t>이지현</t>
   </si>
   <si>
-    <t>010-3360-6304</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변서로 127 (망월동, 미사강변 센텀팰리스(Centum Palace)) 1805동 602호</t>
   </si>
   <si>
@@ -532,9 +448,6 @@
     <t>김진희</t>
   </si>
   <si>
-    <t>010-6380-5231</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변서로 127 (망월동, 미사강변 센텀팰리스(Centum Palace)) 1813동 204호</t>
   </si>
   <si>
@@ -547,9 +460,6 @@
     <t>최만주</t>
   </si>
   <si>
-    <t>010-5792-5554</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변서로 127 (망월동, 미사강변도시18단지) 1810동 605호</t>
   </si>
   <si>
@@ -559,9 +469,6 @@
     <t>이연진</t>
   </si>
   <si>
-    <t>010-3394-1391</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변서로 127 (망월동, 미사강변도시18단지) 1811동105호</t>
   </si>
   <si>
@@ -574,9 +481,6 @@
     <t>정하원</t>
   </si>
   <si>
-    <t>010-2268-6633</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 아리수로93다길 80 (강일동, 힐스테이트 리슈빌 강일) 501-505호</t>
   </si>
   <si>
@@ -589,9 +493,6 @@
     <t>강병우</t>
   </si>
   <si>
-    <t>010-7101-0151</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 아리수로93다길 80 (강일동, 힐스테이트 리슈빌 강일) 501동 408호</t>
   </si>
   <si>
@@ -604,9 +505,6 @@
     <t>손병규</t>
   </si>
   <si>
-    <t>010-8937-9347</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 아리수로93다길 80 (강일동, 힐스테이트 리슈빌 강일) 503동 412호</t>
   </si>
   <si>
@@ -619,9 +517,6 @@
     <t>고은아</t>
   </si>
   <si>
-    <t>010-6320-5539</t>
-  </si>
-  <si>
     <t>경기도 하남시 풍산로 270 (선동, 미사강변도시 베라체) 206동 1803호</t>
   </si>
   <si>
@@ -634,9 +529,6 @@
     <t>유선아</t>
   </si>
   <si>
-    <t>010-2697-3963</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변북로 25 (선동) 미사강변리슈빌 407동 1703호</t>
   </si>
   <si>
@@ -649,9 +541,6 @@
     <t>조미영</t>
   </si>
   <si>
-    <t>010-7511-1546</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변북로 25 (선동, 미사강변리슈빌엔에이치애프) 401동 1502호</t>
   </si>
   <si>
@@ -664,9 +553,6 @@
     <t>강미화</t>
   </si>
   <si>
-    <t>010-5323-9760</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 240 (망월동 ,미사강변도시8단지 809동603호</t>
   </si>
   <si>
@@ -679,9 +565,6 @@
     <t>조은주</t>
   </si>
   <si>
-    <t>010-4327-9300</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 240 (망월동, 미사강변도시8단지) 813동 1101호</t>
   </si>
   <si>
@@ -694,9 +577,6 @@
     <t>민영란</t>
   </si>
   <si>
-    <t>010-9630-3450</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 240 (망월동, 미사강변도시8단지) 813동1102호</t>
   </si>
   <si>
@@ -709,9 +589,6 @@
     <t>곽보근</t>
   </si>
   <si>
-    <t>010-9524-5500</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변동로 19 (풍산동, 신안인스빌) 3206동 701호</t>
   </si>
   <si>
@@ -724,9 +601,6 @@
     <t>안지은</t>
   </si>
   <si>
-    <t>010-4843-2538</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변중앙로111번길 24 (풍산동, 파크빌) 302호</t>
   </si>
   <si>
@@ -736,9 +610,6 @@
     <t>노지희</t>
   </si>
   <si>
-    <t>010-9258-2317</t>
-  </si>
-  <si>
     <t>경기도 하남시 아리수로 589-3 (망월동, 미사강변파밀리에) 1504동 803호</t>
   </si>
   <si>
@@ -751,9 +622,6 @@
     <t>이숙희</t>
   </si>
   <si>
-    <t>010-9241-8990</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변동로 177 (망월동, 미사강변도시12단지) 1203동 405호</t>
   </si>
   <si>
@@ -766,9 +634,6 @@
     <t>강정구</t>
   </si>
   <si>
-    <t>010-5730-5368</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변북로 65 (선동, 미사강변 더샵 리버포레) 1003동902호</t>
   </si>
   <si>
@@ -781,9 +646,6 @@
     <t>배경숙</t>
   </si>
   <si>
-    <t>010-5537-6192</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변북로 65 미사강변 더샵리버포레 1003동 2904호</t>
   </si>
   <si>
@@ -796,9 +658,6 @@
     <t>문태희</t>
   </si>
   <si>
-    <t>010-8884-3312</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 270 7단지 710동 2104호</t>
   </si>
   <si>
@@ -808,9 +667,6 @@
     <t>박현주</t>
   </si>
   <si>
-    <t>010-6339-9010</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변한강로 110 (선동, 미사강변도시9단지) 907-1301</t>
   </si>
   <si>
@@ -820,9 +676,6 @@
     <t>지용배</t>
   </si>
   <si>
-    <t>010-8843-7275</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변한강로158번길 43 (망월동) 201호</t>
   </si>
   <si>
@@ -835,9 +688,6 @@
     <t>정영석</t>
   </si>
   <si>
-    <t>010-5159-2394</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변북로 130 (망월동, 미사강변도시16단지) 1604동 304호</t>
   </si>
   <si>
@@ -850,9 +700,6 @@
     <t>이세영</t>
   </si>
   <si>
-    <t>010-8988-3822</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변북로 130 (망월동, 미사강변도시16단지) 1606동 702호</t>
   </si>
   <si>
@@ -865,9 +712,6 @@
     <t>왕세나</t>
   </si>
   <si>
-    <t>010-5059-8523</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변중앙로 120 (풍산동) 아란티움 아파트 2501동 2204호</t>
   </si>
   <si>
@@ -880,9 +724,6 @@
     <t>문미영</t>
   </si>
   <si>
-    <t>010-8936-3509</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변중앙로 120 (풍산동, 미사강변아란티움) 2502동 505호</t>
   </si>
   <si>
@@ -895,9 +736,6 @@
     <t>최지예</t>
   </si>
   <si>
-    <t>010-7667-5752</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변중앙로 120 (풍산동, 미사강변아란티움) 2504-702</t>
   </si>
   <si>
@@ -910,9 +748,6 @@
     <t>김연옥</t>
   </si>
   <si>
-    <t>010-8716-9890</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 95 (풍산동, 미사강변센트럴자이) 101동 2403호</t>
   </si>
   <si>
@@ -922,9 +757,6 @@
     <t>정재은</t>
   </si>
   <si>
-    <t>010-2499-3289</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 95 (풍산동, 미사강변센트럴자이) 101동 2701호</t>
   </si>
   <si>
@@ -937,9 +769,6 @@
     <t>전민영</t>
   </si>
   <si>
-    <t>010-8858-6075</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 95 (풍산동, 미사강변센트럴자이) 101동 603호</t>
   </si>
   <si>
@@ -952,9 +781,6 @@
     <t>김현정</t>
   </si>
   <si>
-    <t>010-9031-3307</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 95 (풍산동, 미사강변센트럴자이) 109동 801호</t>
   </si>
   <si>
@@ -967,9 +793,6 @@
     <t>이은주</t>
   </si>
   <si>
-    <t>010-6390-4369</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변서로 85 (풍산동, 미사강변 동일하이빌) 2006-104</t>
   </si>
   <si>
@@ -982,9 +805,6 @@
     <t>손선미</t>
   </si>
   <si>
-    <t>010-8700-0296</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변서로 45 동원로얄듀크 2204동 2103호</t>
   </si>
   <si>
@@ -994,9 +814,6 @@
     <t>김제웅</t>
   </si>
   <si>
-    <t>010-5274-2413</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변대로 55 (풍산동, 미사강변 더샵 센트럴포레) 2302동 1804호 (공동현관 : #1804#9022)</t>
   </si>
   <si>
@@ -1009,9 +826,6 @@
     <t>장미경</t>
   </si>
   <si>
-    <t>010-2093-1125</t>
-  </si>
-  <si>
     <t>경기도 하남시 미사강변서로 65 (풍산동, 미사강변센트럴풍경채) 3307동402호</t>
   </si>
   <si>
@@ -1021,9 +835,6 @@
     <t>윤소명</t>
   </si>
   <si>
-    <t>010-2063-3379</t>
-  </si>
-  <si>
     <t>서울특별시 강동구 고덕로98길 29 (상일동, 강동리엔파크9단지) 902동 518호</t>
   </si>
   <si>
@@ -1039,9 +850,6 @@
     <t>이혜련</t>
   </si>
   <si>
-    <t>010-6428-8971</t>
-  </si>
-  <si>
     <t>경기도 하남시 덕풍북로31번길 53 (덕풍동) 1층</t>
   </si>
   <si>
@@ -1051,9 +859,6 @@
     <t>박새봄</t>
   </si>
   <si>
-    <t>010-3075-5499</t>
-  </si>
-  <si>
     <t>경기도 하남시 세미로1길 10 (풍산동, 하남힐즈파크푸르지오 1단지) 107동 603호</t>
   </si>
   <si>
@@ -1063,9 +868,6 @@
     <t>장민아</t>
   </si>
   <si>
-    <t>010-9570-2826</t>
-  </si>
-  <si>
     <t>경기도 하남시 세미로1길 11 (풍산동, 하남힐즈파크푸르지오 2단지) 201동 1601호</t>
   </si>
   <si>
@@ -1078,9 +880,6 @@
     <t>한송희</t>
   </si>
   <si>
-    <t>010-4102-2509</t>
-  </si>
-  <si>
     <t>경기도 하남시 덕산로 39 (덕풍동, 한솔리치빌아파트1단지) 103동 1204호</t>
   </si>
   <si>
@@ -1093,9 +892,6 @@
     <t>윤정화</t>
   </si>
   <si>
-    <t>010-4330-3729</t>
-  </si>
-  <si>
     <t>경기도 하남시 신장1로28번길 17 (신장동) 2층</t>
   </si>
   <si>
@@ -1108,18 +904,12 @@
     <t>윤정원</t>
   </si>
   <si>
-    <t>010-5350-3727</t>
-  </si>
-  <si>
     <t>경기도 하남시 신장1로28번길 17 (신장동) 뒷집 1층 102호</t>
   </si>
   <si>
     <t>신영세</t>
   </si>
   <si>
-    <t>010-5124-3860</t>
-  </si>
-  <si>
     <t>경기도 하남시 하남대로783번길 32 (신장동) 203호</t>
   </si>
   <si>
@@ -1132,9 +922,6 @@
     <t>신기철</t>
   </si>
   <si>
-    <t>010-4477-5292</t>
-  </si>
-  <si>
     <t>경기도 하남시 하남대로802번길 55 (신장동, 에코타운) 202동504호</t>
   </si>
   <si>
@@ -1144,9 +931,6 @@
     <t>김진영</t>
   </si>
   <si>
-    <t>010-9929-6075</t>
-  </si>
-  <si>
     <t>경기도 하남시 하남대로 830 (덕풍동) 더샵 하남에디피스 108동 1003호</t>
   </si>
   <si>
@@ -1159,9 +943,6 @@
     <t>조미향</t>
   </si>
   <si>
-    <t>010-9878-4701</t>
-  </si>
-  <si>
     <t>경기도 하남시 하남대로 830 (덕풍동, 더샵하남에디피스) 108동 2204호</t>
   </si>
   <si>
@@ -1177,9 +958,6 @@
     <t>최지수</t>
   </si>
   <si>
-    <t>010-4759-1731</t>
-  </si>
-  <si>
     <t>경기도 하남시 하남유니온로 10 (신장동) 102-904</t>
   </si>
   <si>
@@ -1192,9 +970,6 @@
     <t>정상아</t>
   </si>
   <si>
-    <t>010-3373-3124</t>
-  </si>
-  <si>
     <t>경기도 하남시 대청로 79 (신장동, 대명강변타운아파트) 104동 704호</t>
   </si>
   <si>
@@ -1204,13 +979,79 @@
     <t>이가현</t>
   </si>
   <si>
-    <t>010-3834-7901</t>
-  </si>
-  <si>
     <t>경기도 하남시 대청로 62 (신장동, 백조현대아파트) 103동 1906호</t>
   </si>
   <si>
     <t>문앞에 놓아주세요 열쇠5903</t>
+  </si>
+  <si>
+    <t>2025081585332662</t>
+  </si>
+  <si>
+    <t>2025081585332663</t>
+  </si>
+  <si>
+    <t>2025081585332664</t>
+  </si>
+  <si>
+    <t>2025081585332665</t>
+  </si>
+  <si>
+    <t>2025081585332666</t>
+  </si>
+  <si>
+    <t>2025081585332667</t>
+  </si>
+  <si>
+    <t>2025081585332668</t>
+  </si>
+  <si>
+    <t>2025081585332669</t>
+  </si>
+  <si>
+    <t>2025081585332670</t>
+  </si>
+  <si>
+    <t>2025081585332671</t>
+  </si>
+  <si>
+    <t>2025081585332672</t>
+  </si>
+  <si>
+    <t>2025081585332673</t>
+  </si>
+  <si>
+    <t>2025081585332674</t>
+  </si>
+  <si>
+    <t>2025081585332675</t>
+  </si>
+  <si>
+    <t>2025081585332676</t>
+  </si>
+  <si>
+    <t>2025081585332677</t>
+  </si>
+  <si>
+    <t>2025081585332678</t>
+  </si>
+  <si>
+    <t>2025081585332679</t>
+  </si>
+  <si>
+    <t>2025081585332680</t>
+  </si>
+  <si>
+    <t>2025081585332681</t>
+  </si>
+  <si>
+    <t>2025081585332682</t>
+  </si>
+  <si>
+    <t>2025081585332683</t>
+  </si>
+  <si>
+    <t>2025081585332684</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1212,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1412,9 +1253,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1618,9 +1456,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1700,7 +1538,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1727,10 +1565,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1977,9 +1815,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2257,7 +2095,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2284,10 +2122,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2532,7 +2370,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2544,7 +2382,7 @@
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.35156" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.0625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
     <col min="8" max="9" width="86.8516" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.85156" style="1" customWidth="1"/>
@@ -2661,7 +2499,9 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7"/>
+      <c r="A4" t="s" s="4">
+        <v>19</v>
+      </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -2731,7 +2571,9 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
+      <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -2744,8 +2586,8 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" t="s" s="4">
-        <v>29</v>
+      <c r="F6" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" t="s" s="4">
@@ -2777,8 +2619,8 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="4">
-        <v>29</v>
+      <c r="F7" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" t="s" s="4">
@@ -2812,13 +2654,15 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" t="s" s="4">
+      <c r="F8" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s" s="4">
         <v>41</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" t="s" s="4">
-        <v>42</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="5">
@@ -2829,27 +2673,29 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5">
         <v>8</v>
       </c>
       <c r="C9" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s" s="4">
         <v>44</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" t="s" s="4">
-        <v>46</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="5">
@@ -2860,30 +2706,32 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5">
         <v>9</v>
       </c>
       <c r="C10" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s" s="4">
         <v>48</v>
-      </c>
-      <c r="D10" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s" s="4">
-        <v>51</v>
       </c>
       <c r="K10" s="5">
         <v>333</v>
@@ -2893,13 +2741,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="4">
         <v>14</v>
@@ -2907,13 +2755,15 @@
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" t="s" s="4">
-        <v>54</v>
+      <c r="F11" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="H11" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I11" t="s" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5">
@@ -2924,13 +2774,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s" s="4">
         <v>14</v>
@@ -2938,13 +2788,15 @@
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" t="s" s="4">
-        <v>58</v>
+      <c r="F12" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="H12" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I12" t="s" s="4">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="5">
@@ -2955,13 +2807,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5">
         <v>12</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s" s="4">
         <v>14</v>
@@ -2969,16 +2821,18 @@
       <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" t="s" s="4">
-        <v>62</v>
+      <c r="F13" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="H13" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I13" t="s" s="4">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="4">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K13" s="5">
         <v>945</v>
@@ -2988,13 +2842,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5">
         <v>13</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s" s="4">
         <v>14</v>
@@ -3002,16 +2856,18 @@
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" t="s" s="4">
-        <v>67</v>
+      <c r="F14" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="H14" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I14" t="s" s="4">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s" s="4">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -3019,13 +2875,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5">
         <v>101</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="4">
         <v>14</v>
@@ -3033,16 +2889,18 @@
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" t="s" s="4">
-        <v>72</v>
+      <c r="F15" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="H15" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I15" t="s" s="4">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s" s="4">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K15" s="5">
         <v>30</v>
@@ -3051,12 +2909,14 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7"/>
+      <c r="A16" t="s" s="4">
+        <v>19</v>
+      </c>
       <c r="B16" s="5">
         <v>102</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s" s="12">
         <v>14</v>
@@ -3064,16 +2924,18 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="12">
-        <v>76</v>
+      <c r="F16" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I16" t="s" s="12">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s" s="12">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K16" s="5">
         <v>954</v>
@@ -3083,13 +2945,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5">
         <v>103</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s" s="4">
         <v>14</v>
@@ -3097,13 +2959,15 @@
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" t="s" s="4">
-        <v>81</v>
+      <c r="F17" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="H17" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I17" t="s" s="4">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="5">
@@ -3114,13 +2978,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5">
         <v>104</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s" s="4">
         <v>14</v>
@@ -3128,16 +2992,18 @@
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" t="s" s="4">
-        <v>85</v>
+      <c r="F18" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="H18" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I18" t="s" s="4">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="4">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K18" s="5">
         <v>906</v>
@@ -3147,13 +3013,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5">
         <v>105</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s" s="4">
         <v>14</v>
@@ -3161,16 +3027,18 @@
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" t="s" s="4">
-        <v>90</v>
+      <c r="F19" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="H19" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I19" t="s" s="4">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="4">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K19" s="5">
         <v>908</v>
@@ -3180,13 +3048,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5">
         <v>106</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s" s="4">
         <v>14</v>
@@ -3194,16 +3062,18 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" t="s" s="4">
-        <v>95</v>
+      <c r="F20" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="H20" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I20" t="s" s="4">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="4">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K20" s="5">
         <v>279</v>
@@ -3213,13 +3083,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5">
         <v>107</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s" s="4">
         <v>14</v>
@@ -3227,16 +3097,18 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" t="s" s="4">
-        <v>100</v>
+      <c r="F21" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="H21" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I21" t="s" s="4">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="4">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K21" s="5">
         <v>439</v>
@@ -3246,13 +3118,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5">
         <v>108</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s" s="4">
         <v>14</v>
@@ -3260,13 +3132,15 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" t="s" s="4">
-        <v>105</v>
+      <c r="F22" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+      <c r="H22" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I22" t="s" s="4">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="5">
@@ -3277,13 +3151,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5">
         <v>109</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s" s="4">
         <v>14</v>
@@ -3291,16 +3165,18 @@
       <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" t="s" s="4">
-        <v>109</v>
+      <c r="F23" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="H23" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I23" t="s" s="4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s" s="4">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K23" s="5">
         <v>14</v>
@@ -3310,13 +3186,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5">
         <v>110</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s" s="4">
         <v>14</v>
@@ -3324,13 +3200,15 @@
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" t="s" s="4">
-        <v>114</v>
+      <c r="F24" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="H24" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I24" t="s" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="5">
@@ -3341,13 +3219,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5">
         <v>111</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s" s="4">
         <v>14</v>
@@ -3355,13 +3233,15 @@
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" t="s" s="4">
-        <v>118</v>
+      <c r="F25" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="H25" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I25" t="s" s="4">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="5">
@@ -3372,42 +3252,44 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" t="s" s="4">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s" s="13">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" t="s" s="4">
-        <v>118</v>
+      <c r="F26" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="H26" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I26" t="s" s="4">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" t="s" s="13">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B27" s="5">
         <v>112</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s" s="4">
         <v>14</v>
@@ -3415,13 +3297,15 @@
       <c r="E27" s="6">
         <v>1</v>
       </c>
-      <c r="F27" t="s" s="4">
-        <v>124</v>
+      <c r="F27" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" t="s" s="15">
-        <v>125</v>
+      <c r="H27" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s" s="14">
+        <v>106</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="5">
@@ -3432,13 +3316,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5">
         <v>113</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s" s="4">
         <v>14</v>
@@ -3446,16 +3330,18 @@
       <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" t="s" s="4">
-        <v>128</v>
+      <c r="F28" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="H28" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I28" t="s" s="4">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s" s="4">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K28" s="5">
         <v>920</v>
@@ -3465,30 +3351,32 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5">
         <v>114</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>132</v>
-      </c>
-      <c r="D29" t="s" s="16">
-        <v>133</v>
+        <v>112</v>
+      </c>
+      <c r="D29" t="s" s="15">
+        <v>113</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" t="s" s="4">
-        <v>134</v>
+      <c r="F29" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="H29" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I29" t="s" s="4">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="K29" s="17">
+      <c r="K29" s="16">
         <v>315</v>
       </c>
       <c r="L29" s="7"/>
@@ -3496,13 +3384,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B30" s="5">
         <v>115</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s" s="4">
         <v>14</v>
@@ -3510,16 +3398,18 @@
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" t="s" s="4">
-        <v>138</v>
+      <c r="F30" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
+      <c r="H30" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I30" t="s" s="4">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s" s="4">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K30" s="5">
         <v>172</v>
@@ -3529,44 +3419,46 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="D31" t="s" s="15">
-        <v>142</v>
+        <v>116</v>
+      </c>
+      <c r="D31" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" t="s" s="4">
-        <v>138</v>
+      <c r="F31" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="H31" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I31" t="s" s="4">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="J31" t="s" s="4">
-        <v>140</v>
-      </c>
-      <c r="K31" t="s" s="15">
-        <v>142</v>
+        <v>118</v>
+      </c>
+      <c r="K31" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5">
         <v>116</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s" s="4">
         <v>14</v>
@@ -3574,16 +3466,18 @@
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" t="s" s="4">
-        <v>145</v>
+      <c r="F32" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="H32" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I32" t="s" s="4">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J32" t="s" s="4">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="K32" s="5">
         <v>560</v>
@@ -3593,13 +3487,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B33" s="5">
         <v>117</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s" s="4">
         <v>14</v>
@@ -3607,16 +3501,18 @@
       <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" t="s" s="4">
-        <v>150</v>
+      <c r="F33" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="H33" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I33" t="s" s="4">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="J33" t="s" s="4">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="K33" s="5">
         <v>538</v>
@@ -3626,44 +3522,46 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" t="s" s="4">
-        <v>149</v>
-      </c>
-      <c r="D34" t="s" s="15">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="D34" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F34" t="s" s="4">
-        <v>150</v>
+      <c r="F34" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="H34" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I34" t="s" s="4">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="J34" t="s" s="4">
-        <v>152</v>
-      </c>
-      <c r="K34" t="s" s="15">
-        <v>142</v>
+        <v>128</v>
+      </c>
+      <c r="K34" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B35" s="5">
         <v>118</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s" s="4">
         <v>14</v>
@@ -3671,16 +3569,18 @@
       <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F35" t="s" s="4">
-        <v>156</v>
+      <c r="F35" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
+      <c r="H35" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I35" t="s" s="4">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s" s="4">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="K35" s="5">
         <v>951</v>
@@ -3690,30 +3590,32 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s" s="4">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B36" s="5">
         <v>119</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>160</v>
-      </c>
-      <c r="D36" t="s" s="16">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="D36" t="s" s="15">
+        <v>113</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" t="s" s="4">
-        <v>161</v>
+      <c r="F36" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="H36" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I36" t="s" s="4">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="J36" s="8"/>
-      <c r="K36" s="17">
+      <c r="K36" s="16">
         <v>842</v>
       </c>
       <c r="L36" s="7"/>
@@ -3721,13 +3623,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s" s="4">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B37" s="5">
         <v>120</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s" s="4">
         <v>14</v>
@@ -3735,13 +3637,15 @@
       <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="F37" t="s" s="4">
-        <v>165</v>
+      <c r="F37" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="H37" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I37" t="s" s="4">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="5">
@@ -3752,13 +3656,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s" s="4">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B38" s="5">
         <v>201</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s" s="4">
         <v>14</v>
@@ -3766,13 +3670,15 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" t="s" s="4">
-        <v>169</v>
+      <c r="F38" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="H38" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I38" t="s" s="4">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="5">
@@ -3783,13 +3689,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s" s="4">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B39" s="5">
         <v>202</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s" s="4">
         <v>14</v>
@@ -3797,16 +3703,18 @@
       <c r="E39" s="6">
         <v>1</v>
       </c>
-      <c r="F39" t="s" s="4">
-        <v>173</v>
+      <c r="F39" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
+      <c r="H39" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I39" t="s" s="4">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="J39" t="s" s="4">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="K39" s="5">
         <v>185</v>
@@ -3816,13 +3724,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s" s="4">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B40" s="5">
         <v>203</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s" s="4">
         <v>14</v>
@@ -3830,13 +3738,15 @@
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" t="s" s="4">
-        <v>178</v>
+      <c r="F40" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
+      <c r="H40" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I40" t="s" s="4">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="5">
@@ -3847,13 +3757,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B41" s="5">
         <v>204</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s" s="4">
         <v>14</v>
@@ -3861,16 +3771,18 @@
       <c r="E41" s="6">
         <v>1</v>
       </c>
-      <c r="F41" t="s" s="4">
-        <v>182</v>
+      <c r="F41" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="H41" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I41" t="s" s="4">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="J41" t="s" s="4">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="K41" s="5">
         <v>884</v>
@@ -3880,13 +3792,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s" s="4">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B42" s="5">
         <v>205</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s" s="4">
         <v>14</v>
@@ -3894,16 +3806,18 @@
       <c r="E42" s="6">
         <v>1</v>
       </c>
-      <c r="F42" t="s" s="4">
-        <v>187</v>
+      <c r="F42" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
+      <c r="H42" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I42" t="s" s="4">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="J42" t="s" s="4">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="K42" s="5">
         <v>733</v>
@@ -3913,13 +3827,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s" s="4">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B43" s="5">
         <v>206</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s" s="4">
         <v>14</v>
@@ -3927,16 +3841,18 @@
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" t="s" s="4">
-        <v>192</v>
+      <c r="F43" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+      <c r="H43" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I43" t="s" s="4">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="J43" t="s" s="4">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="K43" s="5">
         <v>313</v>
@@ -3946,13 +3862,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B44" s="5">
         <v>207</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s" s="4">
         <v>14</v>
@@ -3960,16 +3876,18 @@
       <c r="E44" s="6">
         <v>1</v>
       </c>
-      <c r="F44" t="s" s="4">
-        <v>197</v>
+      <c r="F44" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+      <c r="H44" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I44" t="s" s="4">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="J44" t="s" s="4">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="K44" s="5">
         <v>321</v>
@@ -3979,13 +3897,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="B45" s="5">
         <v>208</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s" s="4">
         <v>14</v>
@@ -3993,16 +3911,18 @@
       <c r="E45" s="6">
         <v>1</v>
       </c>
-      <c r="F45" t="s" s="4">
-        <v>202</v>
+      <c r="F45" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
+      <c r="H45" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I45" t="s" s="4">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="J45" t="s" s="4">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="K45" s="5">
         <v>924</v>
@@ -4012,13 +3932,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B46" s="5">
         <v>209</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s" s="4">
         <v>14</v>
@@ -4026,16 +3946,18 @@
       <c r="E46" s="6">
         <v>1</v>
       </c>
-      <c r="F46" t="s" s="4">
-        <v>207</v>
+      <c r="F46" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
+      <c r="H46" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I46" t="s" s="4">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="J46" t="s" s="4">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="K46" s="5">
         <v>411</v>
@@ -4045,13 +3967,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="B47" s="5">
         <v>210</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s" s="4">
         <v>14</v>
@@ -4059,16 +3981,18 @@
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" t="s" s="4">
-        <v>212</v>
+      <c r="F47" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
+      <c r="H47" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I47" t="s" s="4">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="J47" t="s" s="4">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="K47" s="5">
         <v>438</v>
@@ -4078,13 +4002,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B48" s="5">
         <v>211</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s" s="4">
         <v>14</v>
@@ -4092,16 +4016,18 @@
       <c r="E48" s="6">
         <v>1</v>
       </c>
-      <c r="F48" t="s" s="4">
-        <v>217</v>
+      <c r="F48" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
+      <c r="H48" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I48" t="s" s="4">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="J48" t="s" s="4">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="K48" s="5">
         <v>8</v>
@@ -4111,13 +4037,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B49" s="5">
         <v>212</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s" s="4">
         <v>14</v>
@@ -4125,16 +4051,18 @@
       <c r="E49" s="6">
         <v>1</v>
       </c>
-      <c r="F49" t="s" s="4">
-        <v>222</v>
+      <c r="F49" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
+      <c r="H49" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I49" t="s" s="4">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J49" t="s" s="4">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="K49" s="5">
         <v>509</v>
@@ -4144,13 +4072,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B50" s="5">
         <v>213</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s" s="4">
         <v>14</v>
@@ -4158,32 +4086,34 @@
       <c r="E50" s="6">
         <v>1</v>
       </c>
-      <c r="F50" t="s" s="4">
-        <v>227</v>
+      <c r="F50" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
+      <c r="H50" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I50" t="s" s="4">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="J50" t="s" s="4">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="K50" s="5">
         <v>265</v>
       </c>
       <c r="L50" s="7"/>
-      <c r="M50" s="18"/>
+      <c r="M50" s="17"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B51" s="5">
         <v>301</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D51" t="s" s="4">
         <v>14</v>
@@ -4191,16 +4121,18 @@
       <c r="E51" s="6">
         <v>1</v>
       </c>
-      <c r="F51" t="s" s="4">
-        <v>232</v>
+      <c r="F51" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
+      <c r="H51" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I51" t="s" s="4">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="J51" t="s" s="4">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="K51" s="5">
         <v>874</v>
@@ -4210,13 +4142,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="B52" s="5">
         <v>302</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="D52" t="s" s="4">
         <v>14</v>
@@ -4224,13 +4156,15 @@
       <c r="E52" s="6">
         <v>1</v>
       </c>
-      <c r="F52" t="s" s="4">
-        <v>237</v>
+      <c r="F52" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
+      <c r="H52" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I52" t="s" s="4">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="5">
@@ -4241,13 +4175,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B53" s="5">
         <v>303</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s" s="4">
         <v>14</v>
@@ -4255,16 +4189,18 @@
       <c r="E53" s="6">
         <v>1</v>
       </c>
-      <c r="F53" t="s" s="4">
-        <v>241</v>
+      <c r="F53" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
+      <c r="H53" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I53" t="s" s="4">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="J53" t="s" s="4">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="K53" s="5">
         <v>878</v>
@@ -4274,13 +4210,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="B54" s="5">
         <v>304</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s" s="4">
         <v>14</v>
@@ -4288,16 +4224,18 @@
       <c r="E54" s="6">
         <v>1</v>
       </c>
-      <c r="F54" t="s" s="4">
-        <v>246</v>
+      <c r="F54" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
+      <c r="H54" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I54" t="s" s="4">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="J54" t="s" s="4">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="K54" s="5">
         <v>401</v>
@@ -4307,13 +4245,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="B55" s="5">
         <v>305</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s" s="4">
         <v>14</v>
@@ -4321,16 +4259,18 @@
       <c r="E55" s="6">
         <v>1</v>
       </c>
-      <c r="F55" t="s" s="4">
-        <v>251</v>
+      <c r="F55" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
+      <c r="H55" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I55" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="J55" t="s" s="19">
-        <v>253</v>
+        <v>207</v>
+      </c>
+      <c r="J55" t="s" s="18">
+        <v>208</v>
       </c>
       <c r="K55" s="5">
         <v>728</v>
@@ -4340,13 +4280,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="B56" s="5">
         <v>306</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s" s="4">
         <v>14</v>
@@ -4354,16 +4294,18 @@
       <c r="E56" s="6">
         <v>1</v>
       </c>
-      <c r="F56" t="s" s="4">
-        <v>256</v>
+      <c r="F56" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
+      <c r="H56" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I56" t="s" s="4">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="J56" t="s" s="4">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="K56" s="5">
         <v>935</v>
@@ -4373,30 +4315,32 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s" s="4">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="B57" s="5">
         <v>307</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s" s="13">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
-      <c r="F57" t="s" s="4">
-        <v>261</v>
+      <c r="F57" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
+      <c r="H57" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I57" t="s" s="4">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="J57" s="8"/>
-      <c r="K57" s="20">
+      <c r="K57" s="19">
         <v>882</v>
       </c>
       <c r="L57" s="7"/>
@@ -4404,13 +4348,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s" s="4">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="B58" s="5">
         <v>308</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="D58" t="s" s="4">
         <v>14</v>
@@ -4418,13 +4362,15 @@
       <c r="E58" s="6">
         <v>1</v>
       </c>
-      <c r="F58" t="s" s="4">
-        <v>265</v>
+      <c r="F58" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
+      <c r="H58" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I58" t="s" s="4">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="5">
@@ -4435,13 +4381,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s" s="4">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="B59" s="5">
         <v>309</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s" s="4">
         <v>14</v>
@@ -4449,16 +4395,18 @@
       <c r="E59" s="6">
         <v>1</v>
       </c>
-      <c r="F59" t="s" s="4">
-        <v>269</v>
+      <c r="F59" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
+      <c r="H59" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I59" t="s" s="4">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="J59" t="s" s="4">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="K59" s="5">
         <v>540</v>
@@ -4468,13 +4416,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s" s="4">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="B60" s="5">
         <v>310</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s" s="4">
         <v>14</v>
@@ -4482,16 +4430,18 @@
       <c r="E60" s="6">
         <v>1</v>
       </c>
-      <c r="F60" t="s" s="4">
-        <v>274</v>
+      <c r="F60" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
+      <c r="H60" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I60" t="s" s="4">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="J60" t="s" s="4">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="K60" s="5">
         <v>227</v>
@@ -4501,13 +4451,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s" s="4">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B61" s="5">
         <v>311</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s" s="4">
         <v>14</v>
@@ -4515,16 +4465,18 @@
       <c r="E61" s="6">
         <v>1</v>
       </c>
-      <c r="F61" t="s" s="4">
-        <v>279</v>
+      <c r="F61" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
+      <c r="H61" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I61" t="s" s="4">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="J61" t="s" s="4">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="K61" s="5">
         <v>620</v>
@@ -4534,13 +4486,13 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s" s="4">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="B62" s="5">
         <v>401</v>
       </c>
       <c r="C62" t="s" s="4">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s" s="4">
         <v>14</v>
@@ -4548,16 +4500,18 @@
       <c r="E62" s="6">
         <v>1</v>
       </c>
-      <c r="F62" t="s" s="4">
-        <v>284</v>
+      <c r="F62" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
+      <c r="H62" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I62" t="s" s="4">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="J62" t="s" s="4">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="K62" s="5">
         <v>865</v>
@@ -4567,13 +4521,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="B63" s="5">
         <v>402</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s" s="4">
         <v>14</v>
@@ -4581,32 +4535,34 @@
       <c r="E63" s="6">
         <v>1</v>
       </c>
-      <c r="F63" t="s" s="4">
-        <v>289</v>
+      <c r="F63" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="8"/>
+      <c r="H63" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I63" t="s" s="4">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="J63" t="s" s="4">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="K63" s="5">
         <v>956</v>
       </c>
       <c r="L63" s="7"/>
-      <c r="M63" s="21"/>
+      <c r="M63" s="20"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="B64" s="5">
         <v>403</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s" s="4">
         <v>14</v>
@@ -4614,16 +4570,18 @@
       <c r="E64" s="6">
         <v>1</v>
       </c>
-      <c r="F64" t="s" s="4">
-        <v>294</v>
+      <c r="F64" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
+      <c r="H64" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I64" t="s" s="4">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="J64" t="s" s="4">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="K64" s="5">
         <v>304</v>
@@ -4633,13 +4591,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="B65" s="5">
         <v>404</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="D65" t="s" s="4">
         <v>14</v>
@@ -4647,13 +4605,15 @@
       <c r="E65" s="6">
         <v>1</v>
       </c>
-      <c r="F65" t="s" s="4">
-        <v>299</v>
+      <c r="F65" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
+      <c r="H65" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I65" t="s" s="4">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="5">
@@ -4664,13 +4624,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="B66" s="5">
         <v>405</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="D66" t="s" s="4">
         <v>14</v>
@@ -4678,16 +4638,18 @@
       <c r="E66" s="6">
         <v>1</v>
       </c>
-      <c r="F66" t="s" s="4">
-        <v>303</v>
+      <c r="F66" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
+      <c r="H66" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I66" t="s" s="4">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="J66" t="s" s="4">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="K66" s="5">
         <v>293</v>
@@ -4697,13 +4659,13 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="B67" s="5">
         <v>406</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="D67" t="s" s="4">
         <v>14</v>
@@ -4711,16 +4673,18 @@
       <c r="E67" s="6">
         <v>1</v>
       </c>
-      <c r="F67" t="s" s="4">
-        <v>308</v>
+      <c r="F67" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="8"/>
+      <c r="H67" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I67" t="s" s="4">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="J67" t="s" s="4">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="K67" s="5">
         <v>307</v>
@@ -4730,13 +4694,13 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="B68" s="5">
         <v>407</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s" s="4">
         <v>14</v>
@@ -4744,16 +4708,18 @@
       <c r="E68" s="6">
         <v>1</v>
       </c>
-      <c r="F68" t="s" s="4">
-        <v>313</v>
+      <c r="F68" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
+      <c r="H68" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I68" t="s" s="4">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="J68" t="s" s="4">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="K68" s="5">
         <v>902</v>
@@ -4763,13 +4729,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="B69" s="5">
         <v>408</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="D69" t="s" s="4">
         <v>14</v>
@@ -4777,16 +4743,18 @@
       <c r="E69" s="6">
         <v>1</v>
       </c>
-      <c r="F69" t="s" s="4">
-        <v>318</v>
+      <c r="F69" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
+      <c r="H69" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I69" t="s" s="4">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="J69" t="s" s="4">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="K69" s="5">
         <v>653</v>
@@ -4796,13 +4764,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="B70" s="5">
         <v>409</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="D70" t="s" s="4">
         <v>14</v>
@@ -4810,13 +4778,15 @@
       <c r="E70" s="6">
         <v>1</v>
       </c>
-      <c r="F70" t="s" s="4">
-        <v>323</v>
+      <c r="F70" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
+      <c r="H70" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I70" t="s" s="4">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="5">
@@ -4827,13 +4797,13 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="B71" s="5">
         <v>410</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s" s="4">
         <v>14</v>
@@ -4841,16 +4811,18 @@
       <c r="E71" s="6">
         <v>1</v>
       </c>
-      <c r="F71" t="s" s="4">
-        <v>327</v>
+      <c r="F71" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
+      <c r="H71" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I71" t="s" s="4">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="J71" t="s" s="4">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="K71" s="5">
         <v>404</v>
@@ -4860,13 +4832,13 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="B72" s="5">
         <v>411</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="D72" t="s" s="4">
         <v>14</v>
@@ -4874,13 +4846,15 @@
       <c r="E72" s="6">
         <v>1</v>
       </c>
-      <c r="F72" t="s" s="4">
-        <v>332</v>
+      <c r="F72" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
+      <c r="H72" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I72" t="s" s="4">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="5">
@@ -4891,13 +4865,13 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="B73" s="5">
         <v>412</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s" s="4">
         <v>14</v>
@@ -4905,16 +4879,18 @@
       <c r="E73" s="6">
         <v>1</v>
       </c>
-      <c r="F73" t="s" s="4">
-        <v>336</v>
+      <c r="F73" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
+      <c r="H73" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I73" t="s" s="4">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="J73" t="s" s="4">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="K73" s="5">
         <v>295</v>
@@ -4924,44 +4900,46 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" t="s" s="4">
-        <v>335</v>
-      </c>
-      <c r="D74" t="s" s="15">
-        <v>142</v>
+        <v>273</v>
+      </c>
+      <c r="D74" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="E74" s="6">
         <v>1</v>
       </c>
-      <c r="F74" t="s" s="4">
-        <v>336</v>
+      <c r="F74" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
+      <c r="H74" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I74" t="s" s="4">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="J74" t="s" s="4">
-        <v>338</v>
-      </c>
-      <c r="K74" t="s" s="15">
-        <v>142</v>
+        <v>275</v>
+      </c>
+      <c r="K74" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="L74" s="7"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="B75" s="5">
         <v>501</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s" s="4">
         <v>14</v>
@@ -4969,13 +4947,15 @@
       <c r="E75" s="6">
         <v>1</v>
       </c>
-      <c r="F75" t="s" s="4">
-        <v>342</v>
+      <c r="F75" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
+      <c r="H75" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I75" t="s" s="4">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="5">
@@ -4986,13 +4966,13 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="B76" s="5">
         <v>502</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="D76" t="s" s="4">
         <v>14</v>
@@ -5000,13 +4980,15 @@
       <c r="E76" s="6">
         <v>1</v>
       </c>
-      <c r="F76" t="s" s="4">
-        <v>346</v>
+      <c r="F76" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G76" s="7"/>
-      <c r="H76" s="8"/>
+      <c r="H76" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I76" t="s" s="4">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="5">
@@ -5017,13 +4999,13 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s" s="4">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="B77" s="5">
         <v>503</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s" s="4">
         <v>14</v>
@@ -5031,16 +5013,18 @@
       <c r="E77" s="6">
         <v>1</v>
       </c>
-      <c r="F77" t="s" s="4">
-        <v>350</v>
+      <c r="F77" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
+      <c r="H77" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I77" t="s" s="4">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="J77" t="s" s="4">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="K77" s="5">
         <v>145</v>
@@ -5050,13 +5034,13 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s" s="4">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="B78" s="5">
         <v>504</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s" s="4">
         <v>14</v>
@@ -5064,16 +5048,18 @@
       <c r="E78" s="6">
         <v>1</v>
       </c>
-      <c r="F78" t="s" s="4">
-        <v>355</v>
+      <c r="F78" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
+      <c r="H78" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I78" t="s" s="4">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="J78" t="s" s="4">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="K78" s="5">
         <v>824</v>
@@ -5083,13 +5069,13 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="s" s="4">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="B79" s="5">
         <v>505</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="D79" t="s" s="4">
         <v>14</v>
@@ -5097,13 +5083,15 @@
       <c r="E79" s="6">
         <v>1</v>
       </c>
-      <c r="F79" t="s" s="4">
-        <v>360</v>
+      <c r="F79" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
+      <c r="H79" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I79" t="s" s="4">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="5">
@@ -5114,13 +5102,13 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s" s="4">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="B80" s="5">
         <v>506</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s" s="4">
         <v>14</v>
@@ -5128,13 +5116,15 @@
       <c r="E80" s="6">
         <v>1</v>
       </c>
-      <c r="F80" t="s" s="4">
-        <v>360</v>
+      <c r="F80" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
+      <c r="H80" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I80" t="s" s="4">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="5">
@@ -5145,13 +5135,13 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="s" s="4">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="B81" s="5">
         <v>507</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s" s="4">
         <v>14</v>
@@ -5159,13 +5149,15 @@
       <c r="E81" s="6">
         <v>1</v>
       </c>
-      <c r="F81" t="s" s="4">
-        <v>365</v>
+      <c r="F81" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
+      <c r="H81" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I81" t="s" s="4">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="5">
@@ -5180,7 +5172,7 @@
         <v>508</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s" s="4">
         <v>14</v>
@@ -5188,16 +5180,18 @@
       <c r="E82" s="6">
         <v>1</v>
       </c>
-      <c r="F82" t="s" s="4">
-        <v>368</v>
+      <c r="F82" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
+      <c r="H82" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I82" t="s" s="4">
-        <v>369</v>
-      </c>
-      <c r="J82" t="s" s="22">
-        <v>370</v>
+        <v>299</v>
+      </c>
+      <c r="J82" t="s" s="21">
+        <v>300</v>
       </c>
       <c r="K82" s="5">
         <v>81</v>
@@ -5207,13 +5201,13 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" t="s" s="4">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="B83" s="5">
         <v>509</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="D83" t="s" s="4">
         <v>14</v>
@@ -5221,13 +5215,15 @@
       <c r="E83" s="6">
         <v>1</v>
       </c>
-      <c r="F83" t="s" s="4">
-        <v>373</v>
+      <c r="F83" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
+      <c r="H83" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I83" t="s" s="4">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="5">
@@ -5238,13 +5234,13 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" t="s" s="4">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="B84" s="5">
         <v>510</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="D84" t="s" s="4">
         <v>14</v>
@@ -5252,16 +5248,18 @@
       <c r="E84" s="6">
         <v>1</v>
       </c>
-      <c r="F84" t="s" s="4">
-        <v>377</v>
+      <c r="F84" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
+      <c r="H84" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I84" t="s" s="4">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="J84" t="s" s="4">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="K84" s="5">
         <v>656</v>
@@ -5271,13 +5269,13 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" t="s" s="4">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="B85" s="5">
         <v>511</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s" s="4">
         <v>14</v>
@@ -5285,16 +5283,18 @@
       <c r="E85" s="6">
         <v>1</v>
       </c>
-      <c r="F85" t="s" s="4">
-        <v>382</v>
+      <c r="F85" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
+      <c r="H85" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I85" t="s" s="4">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="J85" t="s" s="4">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="K85" s="5">
         <v>690</v>
@@ -5304,44 +5304,46 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" t="s" s="4">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" t="s" s="4">
-        <v>381</v>
-      </c>
-      <c r="D86" t="s" s="15">
-        <v>142</v>
+        <v>309</v>
+      </c>
+      <c r="D86" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
       </c>
-      <c r="F86" t="s" s="4">
-        <v>382</v>
+      <c r="F86" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
+      <c r="H86" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I86" t="s" s="4">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="J86" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="K86" t="s" s="15">
-        <v>142</v>
+        <v>311</v>
+      </c>
+      <c r="K86" t="s" s="14">
+        <v>120</v>
       </c>
       <c r="L86" s="7"/>
       <c r="M86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" t="s" s="4">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="B87" s="5">
         <v>512</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="D87" t="s" s="4">
         <v>14</v>
@@ -5349,16 +5351,18 @@
       <c r="E87" s="6">
         <v>1</v>
       </c>
-      <c r="F87" t="s" s="4">
-        <v>388</v>
+      <c r="F87" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
+      <c r="H87" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I87" t="s" s="4">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="J87" t="s" s="4">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="K87" s="5">
         <v>352</v>
@@ -5368,13 +5372,13 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" t="s" s="4">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="B88" s="5">
         <v>513</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="D88" t="s" s="4">
         <v>14</v>
@@ -5382,13 +5386,15 @@
       <c r="E88" s="6">
         <v>1</v>
       </c>
-      <c r="F88" t="s" s="4">
-        <v>393</v>
+      <c r="F88" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
+      <c r="H88" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I88" t="s" s="4">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="5">
@@ -5399,13 +5405,13 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" t="s" s="4">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="B89" s="5">
         <v>514</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s" s="4">
         <v>14</v>
@@ -5413,16 +5419,18 @@
       <c r="E89" s="6">
         <v>1</v>
       </c>
-      <c r="F89" t="s" s="4">
-        <v>397</v>
+      <c r="F89" t="s" s="9">
+        <v>15</v>
       </c>
       <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
+      <c r="H89" t="s" s="4">
+        <v>33</v>
+      </c>
       <c r="I89" t="s" s="4">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="J89" t="s" s="4">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="K89" s="5">
         <v>668</v>
@@ -5431,34 +5439,671 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
+      <c r="A90" t="s" s="4">
+        <v>324</v>
+      </c>
+      <c r="B90" s="5">
+        <v>514</v>
+      </c>
+      <c r="C90" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D90" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G90" s="22"/>
+      <c r="H90" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
       <c r="M90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
+      <c r="A91" t="s" s="4">
+        <v>325</v>
+      </c>
+      <c r="B91" s="5">
+        <v>514</v>
+      </c>
+      <c r="C91" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D91" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
       <c r="M91" s="3"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" t="s" s="4">
+        <v>326</v>
+      </c>
+      <c r="B92" s="5">
+        <v>514</v>
+      </c>
+      <c r="C92" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D92" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" t="s" s="4">
+        <v>327</v>
+      </c>
+      <c r="B93" s="5">
+        <v>514</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D93" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G93" s="22"/>
+      <c r="H93" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" t="s" s="4">
+        <v>328</v>
+      </c>
+      <c r="B94" s="5">
+        <v>514</v>
+      </c>
+      <c r="C94" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D94" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G94" s="22"/>
+      <c r="H94" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" t="s" s="4">
+        <v>329</v>
+      </c>
+      <c r="B95" s="5">
+        <v>514</v>
+      </c>
+      <c r="C95" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D95" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G95" s="22"/>
+      <c r="H95" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" t="s" s="4">
+        <v>330</v>
+      </c>
+      <c r="B96" s="5">
+        <v>514</v>
+      </c>
+      <c r="C96" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D96" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G96" s="22"/>
+      <c r="H96" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" t="s" s="4">
+        <v>331</v>
+      </c>
+      <c r="B97" s="5">
+        <v>514</v>
+      </c>
+      <c r="C97" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D97" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" t="s" s="4">
+        <v>332</v>
+      </c>
+      <c r="B98" s="5">
+        <v>514</v>
+      </c>
+      <c r="C98" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D98" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="H98" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" t="s" s="4">
+        <v>333</v>
+      </c>
+      <c r="B99" s="5">
+        <v>514</v>
+      </c>
+      <c r="C99" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D99" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" t="s" s="4">
+        <v>334</v>
+      </c>
+      <c r="B100" s="5">
+        <v>514</v>
+      </c>
+      <c r="C100" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D100" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" t="s" s="4">
+        <v>335</v>
+      </c>
+      <c r="B101" s="5">
+        <v>514</v>
+      </c>
+      <c r="C101" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D101" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G101" s="22"/>
+      <c r="H101" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" t="s" s="4">
+        <v>336</v>
+      </c>
+      <c r="B102" s="5">
+        <v>514</v>
+      </c>
+      <c r="C102" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D102" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G102" s="22"/>
+      <c r="H102" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" t="s" s="4">
+        <v>337</v>
+      </c>
+      <c r="B103" s="5">
+        <v>514</v>
+      </c>
+      <c r="C103" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D103" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G103" s="22"/>
+      <c r="H103" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" t="s" s="4">
+        <v>338</v>
+      </c>
+      <c r="B104" s="5">
+        <v>514</v>
+      </c>
+      <c r="C104" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D104" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G104" s="22"/>
+      <c r="H104" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" t="s" s="4">
+        <v>339</v>
+      </c>
+      <c r="B105" s="5">
+        <v>514</v>
+      </c>
+      <c r="C105" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D105" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G105" s="22"/>
+      <c r="H105" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" t="s" s="4">
+        <v>340</v>
+      </c>
+      <c r="B106" s="5">
+        <v>514</v>
+      </c>
+      <c r="C106" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D106" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G106" s="22"/>
+      <c r="H106" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" t="s" s="4">
+        <v>341</v>
+      </c>
+      <c r="B107" s="5">
+        <v>514</v>
+      </c>
+      <c r="C107" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G107" s="22"/>
+      <c r="H107" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="3"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" t="s" s="4">
+        <v>342</v>
+      </c>
+      <c r="B108" s="5">
+        <v>514</v>
+      </c>
+      <c r="C108" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D108" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G108" s="22"/>
+      <c r="H108" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="B109" s="5">
+        <v>514</v>
+      </c>
+      <c r="C109" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D109" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G109" s="22"/>
+      <c r="H109" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="B110" s="5">
+        <v>514</v>
+      </c>
+      <c r="C110" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D110" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G110" s="22"/>
+      <c r="H110" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" t="s" s="4">
+        <v>345</v>
+      </c>
+      <c r="B111" s="5">
+        <v>514</v>
+      </c>
+      <c r="C111" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D111" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G111" s="22"/>
+      <c r="H111" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" t="s" s="4">
+        <v>346</v>
+      </c>
+      <c r="B112" s="5">
+        <v>514</v>
+      </c>
+      <c r="C112" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="D112" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="G112" s="22"/>
+      <c r="H112" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/수정.xlsx
+++ b/docs/수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>상품주문번호</t>
   </si>
@@ -992,66 +992,6 @@
   </si>
   <si>
     <t>2025081585332664</t>
-  </si>
-  <si>
-    <t>2025081585332665</t>
-  </si>
-  <si>
-    <t>2025081585332666</t>
-  </si>
-  <si>
-    <t>2025081585332667</t>
-  </si>
-  <si>
-    <t>2025081585332668</t>
-  </si>
-  <si>
-    <t>2025081585332669</t>
-  </si>
-  <si>
-    <t>2025081585332670</t>
-  </si>
-  <si>
-    <t>2025081585332671</t>
-  </si>
-  <si>
-    <t>2025081585332672</t>
-  </si>
-  <si>
-    <t>2025081585332673</t>
-  </si>
-  <si>
-    <t>2025081585332674</t>
-  </si>
-  <si>
-    <t>2025081585332675</t>
-  </si>
-  <si>
-    <t>2025081585332676</t>
-  </si>
-  <si>
-    <t>2025081585332677</t>
-  </si>
-  <si>
-    <t>2025081585332678</t>
-  </si>
-  <si>
-    <t>2025081585332679</t>
-  </si>
-  <si>
-    <t>2025081585332680</t>
-  </si>
-  <si>
-    <t>2025081585332681</t>
-  </si>
-  <si>
-    <t>2025081585332682</t>
-  </si>
-  <si>
-    <t>2025081585332683</t>
-  </si>
-  <si>
-    <t>2025081585332684</t>
   </si>
 </sst>
 </file>
@@ -5526,28 +5466,14 @@
       <c r="M92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" t="s" s="4">
-        <v>327</v>
-      </c>
-      <c r="B93" s="5">
-        <v>514</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D93" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E93" s="6">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="22"/>
-      <c r="H93" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H93" s="4"/>
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
@@ -5555,28 +5481,14 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" t="s" s="4">
-        <v>328</v>
-      </c>
-      <c r="B94" s="5">
-        <v>514</v>
-      </c>
-      <c r="C94" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D94" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E94" s="6">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9"/>
       <c r="G94" s="22"/>
-      <c r="H94" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H94" s="4"/>
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
@@ -5584,28 +5496,14 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" t="s" s="4">
-        <v>329</v>
-      </c>
-      <c r="B95" s="5">
-        <v>514</v>
-      </c>
-      <c r="C95" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D95" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A95" s="4"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="22"/>
-      <c r="H95" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H95" s="4"/>
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
@@ -5613,28 +5511,14 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" t="s" s="4">
-        <v>330</v>
-      </c>
-      <c r="B96" s="5">
-        <v>514</v>
-      </c>
-      <c r="C96" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D96" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E96" s="6">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="22"/>
-      <c r="H96" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H96" s="4"/>
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
@@ -5642,28 +5526,14 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" t="s" s="4">
-        <v>331</v>
-      </c>
-      <c r="B97" s="5">
-        <v>514</v>
-      </c>
-      <c r="C97" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D97" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E97" s="6">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="22"/>
-      <c r="H97" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H97" s="4"/>
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
@@ -5671,28 +5541,14 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" t="s" s="4">
-        <v>332</v>
-      </c>
-      <c r="B98" s="5">
-        <v>514</v>
-      </c>
-      <c r="C98" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D98" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E98" s="6">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A98" s="4"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="22"/>
-      <c r="H98" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H98" s="4"/>
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
@@ -5700,28 +5556,14 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" t="s" s="4">
-        <v>333</v>
-      </c>
-      <c r="B99" s="5">
-        <v>514</v>
-      </c>
-      <c r="C99" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D99" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A99" s="4"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="22"/>
-      <c r="H99" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H99" s="4"/>
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
@@ -5729,28 +5571,14 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" t="s" s="4">
-        <v>334</v>
-      </c>
-      <c r="B100" s="5">
-        <v>514</v>
-      </c>
-      <c r="C100" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D100" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E100" s="6">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="22"/>
-      <c r="H100" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H100" s="4"/>
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22"/>
@@ -5758,28 +5586,14 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" t="s" s="4">
-        <v>335</v>
-      </c>
-      <c r="B101" s="5">
-        <v>514</v>
-      </c>
-      <c r="C101" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D101" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A101" s="4"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="22"/>
-      <c r="H101" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H101" s="4"/>
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22"/>
@@ -5787,28 +5601,14 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" t="s" s="4">
-        <v>336</v>
-      </c>
-      <c r="B102" s="5">
-        <v>514</v>
-      </c>
-      <c r="C102" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D102" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E102" s="6">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="22"/>
-      <c r="H102" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H102" s="4"/>
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22"/>
@@ -5816,28 +5616,14 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" t="s" s="4">
-        <v>337</v>
-      </c>
-      <c r="B103" s="5">
-        <v>514</v>
-      </c>
-      <c r="C103" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D103" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A103" s="4"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="22"/>
-      <c r="H103" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H103" s="4"/>
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22"/>
@@ -5845,28 +5631,14 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" t="s" s="4">
-        <v>338</v>
-      </c>
-      <c r="B104" s="5">
-        <v>514</v>
-      </c>
-      <c r="C104" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D104" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E104" s="6">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="22"/>
-      <c r="H104" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H104" s="4"/>
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22"/>
@@ -5874,28 +5646,14 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" t="s" s="4">
-        <v>339</v>
-      </c>
-      <c r="B105" s="5">
-        <v>514</v>
-      </c>
-      <c r="C105" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D105" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E105" s="6">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="22"/>
-      <c r="H105" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H105" s="4"/>
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
@@ -5903,28 +5661,14 @@
       <c r="M105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" t="s" s="4">
-        <v>340</v>
-      </c>
-      <c r="B106" s="5">
-        <v>514</v>
-      </c>
-      <c r="C106" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D106" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E106" s="6">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="22"/>
-      <c r="H106" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H106" s="4"/>
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
@@ -5932,28 +5676,14 @@
       <c r="M106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" t="s" s="4">
-        <v>341</v>
-      </c>
-      <c r="B107" s="5">
-        <v>514</v>
-      </c>
-      <c r="C107" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D107" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E107" s="6">
-        <v>1</v>
-      </c>
-      <c r="F107" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="22"/>
-      <c r="H107" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H107" s="4"/>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
@@ -5961,28 +5691,14 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" t="s" s="4">
-        <v>342</v>
-      </c>
-      <c r="B108" s="5">
-        <v>514</v>
-      </c>
-      <c r="C108" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D108" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E108" s="6">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="22"/>
-      <c r="H108" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H108" s="4"/>
       <c r="I108" s="22"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
@@ -5990,28 +5706,14 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="B109" s="5">
-        <v>514</v>
-      </c>
-      <c r="C109" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D109" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E109" s="6">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="22"/>
-      <c r="H109" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H109" s="4"/>
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
@@ -6019,28 +5721,14 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="B110" s="5">
-        <v>514</v>
-      </c>
-      <c r="C110" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D110" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E110" s="6">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A110" s="4"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9"/>
       <c r="G110" s="22"/>
-      <c r="H110" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H110" s="4"/>
       <c r="I110" s="22"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
@@ -6048,28 +5736,14 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" t="s" s="4">
-        <v>345</v>
-      </c>
-      <c r="B111" s="5">
-        <v>514</v>
-      </c>
-      <c r="C111" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D111" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A111" s="4"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9"/>
       <c r="G111" s="22"/>
-      <c r="H111" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H111" s="4"/>
       <c r="I111" s="22"/>
       <c r="J111" s="22"/>
       <c r="K111" s="22"/>
@@ -6077,28 +5751,14 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" t="s" s="4">
-        <v>346</v>
-      </c>
-      <c r="B112" s="5">
-        <v>514</v>
-      </c>
-      <c r="C112" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="D112" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="E112" s="6">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s" s="9">
-        <v>15</v>
-      </c>
+      <c r="A112" s="4"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="22"/>
-      <c r="H112" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="H112" s="4"/>
       <c r="I112" s="22"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22"/>
